--- a/src/TestDataH.xlsx
+++ b/src/TestDataH.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13365" windowHeight="3240"/>
   </bookViews>
   <sheets>
-    <sheet name="Add_User" r:id="rId3" sheetId="1"/>
-    <sheet name="Login" r:id="rId4" sheetId="2"/>
+    <sheet name="Add_User" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1:F9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="147">
   <si>
     <t>Full_Name_History</t>
   </si>
@@ -61,6 +64,399 @@
   </si>
   <si>
     <t>Dmhq64Ps!2</t>
+  </si>
+  <si>
+    <t>Eunice Oberbrunner</t>
+  </si>
+  <si>
+    <t>Email_ID_History</t>
+  </si>
+  <si>
+    <t>digitalmeshUoCIsZ@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Lula Klein</t>
+  </si>
+  <si>
+    <t>digitalmesh0CHaKM@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Efrain McCullough PhD</t>
+  </si>
+  <si>
+    <t>digitalmeshwaK7KK@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Angela Cruickshank</t>
+  </si>
+  <si>
+    <t>digitalmeshIQnoti@maildrop.cc</t>
+  </si>
+  <si>
+    <t>DmS2ypPs!2</t>
+  </si>
+  <si>
+    <t>Derrick Ferry</t>
+  </si>
+  <si>
+    <t>digitalmeshaAcfuv@maildrop.cc</t>
+  </si>
+  <si>
+    <t>DmTs53Ps!2</t>
+  </si>
+  <si>
+    <t>Orlo Lubowitz</t>
+  </si>
+  <si>
+    <t>Email_ID</t>
+  </si>
+  <si>
+    <t>digitalmeshS4rMDc@maildrop.cc</t>
+  </si>
+  <si>
+    <t>User_Password</t>
+  </si>
+  <si>
+    <t>DmMn8nPs!2</t>
+  </si>
+  <si>
+    <t>Norene Upton</t>
+  </si>
+  <si>
+    <t>digitalmeshzvA1Lg@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Dmuu6uPs!2</t>
+  </si>
+  <si>
+    <t>Lyla Donnelly</t>
+  </si>
+  <si>
+    <t>digitalmeshaSb93t@maildrop.cc</t>
+  </si>
+  <si>
+    <t>DmKhU8Ps!2</t>
+  </si>
+  <si>
+    <t>Arely Mraz</t>
+  </si>
+  <si>
+    <t>digitalmeshnTy5cN@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Dr. Buster Turner</t>
+  </si>
+  <si>
+    <t>digitalmeshhT4kRu@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Howell Fadel</t>
+  </si>
+  <si>
+    <t>digitalmeshaD2g7B@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Jeff Leannon</t>
+  </si>
+  <si>
+    <t>digitalmeshOj5aaP@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Dr. Dell Schowalter</t>
+  </si>
+  <si>
+    <t>digitalmeshM4pADi@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Irwin Hickle</t>
+  </si>
+  <si>
+    <t>digitalmeshp830DK@maildrop.cc</t>
+  </si>
+  <si>
+    <t>DmS2vSPs!2</t>
+  </si>
+  <si>
+    <t>Company_Name</t>
+  </si>
+  <si>
+    <t>IHMuw</t>
+  </si>
+  <si>
+    <t>njWjk</t>
+  </si>
+  <si>
+    <t>shiRP</t>
+  </si>
+  <si>
+    <t>JQnDg</t>
+  </si>
+  <si>
+    <t>vTFxU</t>
+  </si>
+  <si>
+    <t>SdVcx</t>
+  </si>
+  <si>
+    <t>dNJHn</t>
+  </si>
+  <si>
+    <t>revqF</t>
+  </si>
+  <si>
+    <t>WeQZE</t>
+  </si>
+  <si>
+    <t>DWGeb</t>
+  </si>
+  <si>
+    <t>uYVJd</t>
+  </si>
+  <si>
+    <t>MEfBk</t>
+  </si>
+  <si>
+    <t>ksFzG</t>
+  </si>
+  <si>
+    <t>JPgeR</t>
+  </si>
+  <si>
+    <t>YTsgp</t>
+  </si>
+  <si>
+    <t>njfuh</t>
+  </si>
+  <si>
+    <t>hpUUY</t>
+  </si>
+  <si>
+    <t>LewIg</t>
+  </si>
+  <si>
+    <t>RTFIl</t>
+  </si>
+  <si>
+    <t>kYRZZ</t>
+  </si>
+  <si>
+    <t>jTlBT</t>
+  </si>
+  <si>
+    <t>czCKm</t>
+  </si>
+  <si>
+    <t>Partner_Email</t>
+  </si>
+  <si>
+    <t>digitalmeshp9k4oy@maildrop.cc</t>
+  </si>
+  <si>
+    <t>NKpLA</t>
+  </si>
+  <si>
+    <t>digitalmeshegzikx@maildrop.cc</t>
+  </si>
+  <si>
+    <t>lyBqV</t>
+  </si>
+  <si>
+    <t>digitalmeshbimogg@maildrop.cc</t>
+  </si>
+  <si>
+    <t>rkrEi</t>
+  </si>
+  <si>
+    <t>digitalmeshejblui@maildrop.cc</t>
+  </si>
+  <si>
+    <t>gQqtP</t>
+  </si>
+  <si>
+    <t>digitalmesh9zy1zk@maildrop.cc</t>
+  </si>
+  <si>
+    <t>WPfVj</t>
+  </si>
+  <si>
+    <t>digitalmeshdxm6uv@maildrop.cc</t>
+  </si>
+  <si>
+    <t>ompha</t>
+  </si>
+  <si>
+    <t>digitalmeshleri5o@maildrop.cc</t>
+  </si>
+  <si>
+    <t>VowwN</t>
+  </si>
+  <si>
+    <t>digitalmesh6lewkf@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Rzmek</t>
+  </si>
+  <si>
+    <t>digitalmeshoth6oe@maildrop.cc</t>
+  </si>
+  <si>
+    <t>LLTvb</t>
+  </si>
+  <si>
+    <t>digitalmeshuoqzkv@maildrop.cc</t>
+  </si>
+  <si>
+    <t>HxbeD</t>
+  </si>
+  <si>
+    <t>digitalmesh7uhr3a@maildrop.cc</t>
+  </si>
+  <si>
+    <t>OmOJi</t>
+  </si>
+  <si>
+    <t>digitalmesh31ices@maildrop.cc</t>
+  </si>
+  <si>
+    <t>hDCdn</t>
+  </si>
+  <si>
+    <t>digitalmeshgxdcqw@maildrop.cc</t>
+  </si>
+  <si>
+    <t>OWCIG</t>
+  </si>
+  <si>
+    <t>digitalmeshyzan6z@maildrop.cc</t>
+  </si>
+  <si>
+    <t>huDjQ</t>
+  </si>
+  <si>
+    <t>digitalmeshvmplr0@maildrop.cc</t>
+  </si>
+  <si>
+    <t>fQagu</t>
+  </si>
+  <si>
+    <t>digitalmeshhp5kxk@maildrop.cc</t>
+  </si>
+  <si>
+    <t>kNhbK</t>
+  </si>
+  <si>
+    <t>digitalmesh3qpdcz@maildrop.cc</t>
+  </si>
+  <si>
+    <t>xyEUF</t>
+  </si>
+  <si>
+    <t>digitalmeshkzm7x0@maildrop.cc</t>
+  </si>
+  <si>
+    <t>rbIJy</t>
+  </si>
+  <si>
+    <t>digitalmeshmzwdvj@maildrop.cc</t>
+  </si>
+  <si>
+    <t>iuCuM</t>
+  </si>
+  <si>
+    <t>digitalmeshjnkiqh@maildrop.cc</t>
+  </si>
+  <si>
+    <t>gfSsL</t>
+  </si>
+  <si>
+    <t>digitalmesh2l8os2@maildrop.cc</t>
+  </si>
+  <si>
+    <t>HjNsA</t>
+  </si>
+  <si>
+    <t>digitalmeshjzcoio@maildrop.cc</t>
+  </si>
+  <si>
+    <t>doZvQ</t>
+  </si>
+  <si>
+    <t>digitalmesh57qwed@maildrop.cc</t>
+  </si>
+  <si>
+    <t>WXaFm</t>
+  </si>
+  <si>
+    <t>digitalmeshok4rtn@maildrop.cc</t>
+  </si>
+  <si>
+    <t>kDwPw</t>
+  </si>
+  <si>
+    <t>digitalmeshlbmy9m@maildrop.cc</t>
+  </si>
+  <si>
+    <t>gYrOs</t>
+  </si>
+  <si>
+    <t>digitalmeshhskar1@maildrop.cc</t>
+  </si>
+  <si>
+    <t>VWKOJ</t>
+  </si>
+  <si>
+    <t>digitalmeshqni40h@maildrop.cc</t>
+  </si>
+  <si>
+    <t>AsdKB</t>
+  </si>
+  <si>
+    <t>digitalmeshc5pmnw@maildrop.cc</t>
+  </si>
+  <si>
+    <t>FfAhp</t>
+  </si>
+  <si>
+    <t>digitalmesh81zfs5@maildrop.cc</t>
+  </si>
+  <si>
+    <t>BWodd</t>
+  </si>
+  <si>
+    <t>digitalmeshnybolo@maildrop.cc</t>
+  </si>
+  <si>
+    <t>QOazO</t>
+  </si>
+  <si>
+    <t>digitalmeshp1fayy@maildrop.cc</t>
+  </si>
+  <si>
+    <t>eYYlB</t>
+  </si>
+  <si>
+    <t>Patrner_Password_Record</t>
+  </si>
+  <si>
+    <t>DmcLYZPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshjjyfzh@maildrop.cc</t>
+  </si>
+  <si>
+    <t>idAsI</t>
+  </si>
+  <si>
+    <t>DmpKxvPs!2</t>
+  </si>
+  <si>
+    <t>digitalmesh5rb2yq@maildrop.cc</t>
+  </si>
+  <si>
+    <t>AaAch</t>
+  </si>
+  <si>
+    <t>DmQYmAPs!2</t>
   </si>
 </sst>
 </file>
@@ -70,7 +466,7 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -82,7 +478,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -100,110 +496,941 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.33984375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.91015625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.53125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.80859375" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/TestDataH.xlsx
+++ b/src/TestDataH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="203">
   <si>
     <t>Full_Name_History</t>
   </si>
@@ -457,6 +457,174 @@
   </si>
   <si>
     <t>DmQYmAPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshs2xp2f@maildrop.cc</t>
+  </si>
+  <si>
+    <t>mstCE</t>
+  </si>
+  <si>
+    <t>DmEgkQPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshomtdbw@maildrop.cc</t>
+  </si>
+  <si>
+    <t>zMHZp</t>
+  </si>
+  <si>
+    <t>DmpEEtPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshl3izb3@maildrop.cc</t>
+  </si>
+  <si>
+    <t>crrLh</t>
+  </si>
+  <si>
+    <t>DmIfMDPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshg7rwnx@maildrop.cc</t>
+  </si>
+  <si>
+    <t>eSnDF</t>
+  </si>
+  <si>
+    <t>DmpVPNPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshpngrbp@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Jyael</t>
+  </si>
+  <si>
+    <t>DmAfLBPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshfjozrf@maildrop.cc</t>
+  </si>
+  <si>
+    <t>VHXrG</t>
+  </si>
+  <si>
+    <t>DmP3KRPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshwfzldt@maildrop.cc</t>
+  </si>
+  <si>
+    <t>PhoneNmbr</t>
+  </si>
+  <si>
+    <t>2502036746</t>
+  </si>
+  <si>
+    <t>dcFWE</t>
+  </si>
+  <si>
+    <t>digitalmesh8iqaeb@maildrop.cc</t>
+  </si>
+  <si>
+    <t>3823580855</t>
+  </si>
+  <si>
+    <t>jLSfu</t>
+  </si>
+  <si>
+    <t>digitalmeshcree6t@maildrop.cc</t>
+  </si>
+  <si>
+    <t>3164436699</t>
+  </si>
+  <si>
+    <t>UdOWF</t>
+  </si>
+  <si>
+    <t>digitalmesh3akngz@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2195265514</t>
+  </si>
+  <si>
+    <t>VeqEL</t>
+  </si>
+  <si>
+    <t>digitalmeshwqvjlo@maildrop.cc</t>
+  </si>
+  <si>
+    <t>1520079813</t>
+  </si>
+  <si>
+    <t>mMiTh</t>
+  </si>
+  <si>
+    <t>digitalmeshr5lcwj@maildrop.cc</t>
+  </si>
+  <si>
+    <t>1283385553</t>
+  </si>
+  <si>
+    <t>JPWzZ</t>
+  </si>
+  <si>
+    <t>digitalmeshvjrvef@maildrop.cc</t>
+  </si>
+  <si>
+    <t>8591484305</t>
+  </si>
+  <si>
+    <t>hHneI</t>
+  </si>
+  <si>
+    <t>digitalmeshobxchz@maildrop.cc</t>
+  </si>
+  <si>
+    <t>4140662324</t>
+  </si>
+  <si>
+    <t>rcXvq</t>
+  </si>
+  <si>
+    <t>DmU31CPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshgjfum4@maildrop.cc</t>
+  </si>
+  <si>
+    <t>7240007705</t>
+  </si>
+  <si>
+    <t>uixmO</t>
+  </si>
+  <si>
+    <t>DmmQOlPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshh8b60d@maildrop.cc</t>
+  </si>
+  <si>
+    <t>8554873906</t>
+  </si>
+  <si>
+    <t>kYDPq</t>
+  </si>
+  <si>
+    <t>DmXnghPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshlj7ux5@maildrop.cc</t>
+  </si>
+  <si>
+    <t>3470414515</t>
+  </si>
+  <si>
+    <t>KyPsR</t>
+  </si>
+  <si>
+    <t>DmHsC3Ps!2</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1016,6 +1184,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="15.91015625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="31.53125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="24.80859375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1034,6 +1203,9 @@
       <c r="E1" t="s">
         <v>139</v>
       </c>
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -1051,6 +1223,9 @@
       <c r="E2" t="s">
         <v>140</v>
       </c>
+      <c r="F2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
@@ -1065,6 +1240,9 @@
       <c r="E3" t="s">
         <v>143</v>
       </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
@@ -1079,6 +1257,9 @@
       <c r="E4" t="s">
         <v>146</v>
       </c>
+      <c r="F4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
@@ -1087,6 +1268,12 @@
       <c r="D5" t="s">
         <v>83</v>
       </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" t="s">
@@ -1095,6 +1282,12 @@
       <c r="D6" t="s">
         <v>85</v>
       </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="C7" t="s">
@@ -1103,6 +1296,12 @@
       <c r="D7" t="s">
         <v>87</v>
       </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" t="s">
@@ -1111,6 +1310,12 @@
       <c r="D8" t="s">
         <v>89</v>
       </c>
+      <c r="E8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
@@ -1119,6 +1324,12 @@
       <c r="D9" t="s">
         <v>91</v>
       </c>
+      <c r="E9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" t="s">
@@ -1127,6 +1338,12 @@
       <c r="D10" t="s">
         <v>93</v>
       </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" t="s">
@@ -1135,6 +1352,12 @@
       <c r="D11" t="s">
         <v>95</v>
       </c>
+      <c r="E11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" t="s">
@@ -1143,6 +1366,12 @@
       <c r="D12" t="s">
         <v>97</v>
       </c>
+      <c r="E12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" t="s">
@@ -1151,6 +1380,9 @@
       <c r="D13" t="s">
         <v>99</v>
       </c>
+      <c r="E13" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" t="s">
@@ -1159,6 +1391,9 @@
       <c r="D14" t="s">
         <v>101</v>
       </c>
+      <c r="E14" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="C15" t="s">
@@ -1324,86 +1559,137 @@
       <c r="C35" t="s">
         <v>100</v>
       </c>
+      <c r="D35" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="36">
       <c r="C36" t="s">
         <v>102</v>
       </c>
+      <c r="D36" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="37">
       <c r="C37" t="s">
         <v>104</v>
       </c>
+      <c r="D37" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="38">
       <c r="C38" t="s">
         <v>106</v>
       </c>
+      <c r="D38" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="39">
       <c r="C39" t="s">
         <v>108</v>
       </c>
+      <c r="D39" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="40">
       <c r="C40" t="s">
         <v>110</v>
       </c>
+      <c r="D40" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="41">
       <c r="C41" t="s">
         <v>112</v>
       </c>
+      <c r="D41" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="42">
       <c r="C42" t="s">
         <v>114</v>
       </c>
+      <c r="D42" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="43">
       <c r="C43" t="s">
         <v>116</v>
       </c>
+      <c r="D43" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="44">
       <c r="C44" t="s">
         <v>118</v>
       </c>
+      <c r="D44" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="45">
       <c r="C45" t="s">
         <v>120</v>
       </c>
+      <c r="D45" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="46">
       <c r="C46" t="s">
         <v>122</v>
       </c>
+      <c r="D46" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="47">
       <c r="C47" t="s">
         <v>124</v>
       </c>
+      <c r="D47" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="48">
       <c r="C48" t="s">
         <v>126</v>
       </c>
+      <c r="D48" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="49">
       <c r="C49" t="s">
         <v>128</v>
       </c>
+      <c r="D49" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="50">
       <c r="C50" t="s">
         <v>130</v>
       </c>
+      <c r="D50" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="51">
       <c r="C51" t="s">
         <v>132</v>
       </c>
+      <c r="D51" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="52">
       <c r="C52" t="s">
@@ -1428,6 +1714,91 @@
     <row r="56">
       <c r="C56" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestDataH.xlsx
+++ b/src/TestDataH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="220">
   <si>
     <t>Full_Name_History</t>
   </si>
@@ -625,6 +625,57 @@
   </si>
   <si>
     <t>DmHsC3Ps!2</t>
+  </si>
+  <si>
+    <t>digitalmeshoohju4@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2267312673</t>
+  </si>
+  <si>
+    <t>ZTkBo</t>
+  </si>
+  <si>
+    <t>Dm1zNYPs!2</t>
+  </si>
+  <si>
+    <t>Chaya Rosenbaum</t>
+  </si>
+  <si>
+    <t>digitalmeshJmRpZK@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Dm53mYDm1zNYPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshi0m2gs@maildrop.cc</t>
+  </si>
+  <si>
+    <t>8983205195</t>
+  </si>
+  <si>
+    <t>WjlnQ</t>
+  </si>
+  <si>
+    <t>digitalmeshym64un@maildrop.cc</t>
+  </si>
+  <si>
+    <t>digitalmeshbfffdf@maildrop.cc</t>
+  </si>
+  <si>
+    <t>8935802804</t>
+  </si>
+  <si>
+    <t>mpVup</t>
+  </si>
+  <si>
+    <t>digitalmeshkmyyyd@maildrop.cc</t>
+  </si>
+  <si>
+    <t>1862969126</t>
+  </si>
+  <si>
+    <t>QPazl</t>
   </si>
 </sst>
 </file>
@@ -957,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -965,10 +1016,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.12890625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1051,6 +1102,9 @@
       <c r="C6" t="s">
         <v>43</v>
       </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -1088,6 +1142,9 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -1162,6 +1219,11 @@
     <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1383,6 +1445,9 @@
       <c r="E13" t="s">
         <v>198</v>
       </c>
+      <c r="F13" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" t="s">
@@ -1394,6 +1459,9 @@
       <c r="E14" t="s">
         <v>202</v>
       </c>
+      <c r="F14" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="C15" t="s">
@@ -1402,6 +1470,12 @@
       <c r="D15" t="s">
         <v>103</v>
       </c>
+      <c r="E15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" t="s">
@@ -1410,6 +1484,9 @@
       <c r="D16" t="s">
         <v>105</v>
       </c>
+      <c r="F16" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
@@ -1695,26 +1772,41 @@
       <c r="C52" t="s">
         <v>134</v>
       </c>
+      <c r="D52" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="53">
       <c r="C53" t="s">
         <v>136</v>
       </c>
+      <c r="D53" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="54">
       <c r="C54" t="s">
         <v>138</v>
       </c>
+      <c r="D54" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="55">
       <c r="C55" t="s">
         <v>142</v>
       </c>
+      <c r="D55" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="56">
       <c r="C56" t="s">
         <v>145</v>
       </c>
+      <c r="D56" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="57">
       <c r="C57" t="s">
@@ -1799,6 +1891,26 @@
     <row r="73">
       <c r="C73" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestDataH.xlsx
+++ b/src/TestDataH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="224">
   <si>
     <t>Full_Name_History</t>
   </si>
@@ -676,6 +676,18 @@
   </si>
   <si>
     <t>QPazl</t>
+  </si>
+  <si>
+    <t>digitalmeshboexd4@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2093647839</t>
+  </si>
+  <si>
+    <t>BgyvV</t>
+  </si>
+  <si>
+    <t>Dmxln3Ps!2</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1484,6 +1496,9 @@
       <c r="D16" t="s">
         <v>105</v>
       </c>
+      <c r="E16" t="s">
+        <v>223</v>
+      </c>
       <c r="F16" t="s">
         <v>218</v>
       </c>
@@ -1495,6 +1510,9 @@
       <c r="D17" t="s">
         <v>107</v>
       </c>
+      <c r="F17" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
@@ -1812,6 +1830,9 @@
       <c r="C57" t="s">
         <v>148</v>
       </c>
+      <c r="D57" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="58">
       <c r="C58" t="s">
@@ -1911,6 +1932,11 @@
     <row r="77">
       <c r="C77" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestDataH.xlsx
+++ b/src/TestDataH.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Add_User" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Add_Products" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <oleSize ref="A1:F9"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="271">
   <si>
     <t>Full_Name_History</t>
   </si>
@@ -688,6 +689,147 @@
   </si>
   <si>
     <t>Dmxln3Ps!2</t>
+  </si>
+  <si>
+    <t>Product_Identifier_Value</t>
+  </si>
+  <si>
+    <t>ProdIdoSu1</t>
+  </si>
+  <si>
+    <t>ProdIdhpsv</t>
+  </si>
+  <si>
+    <t>ProdIdglSB</t>
+  </si>
+  <si>
+    <t>ProdIdkU8U</t>
+  </si>
+  <si>
+    <t>ProdIdJnJC</t>
+  </si>
+  <si>
+    <t>ProdIdJzWT</t>
+  </si>
+  <si>
+    <t>ProdIdonIg</t>
+  </si>
+  <si>
+    <t>ProdIdvcWQ</t>
+  </si>
+  <si>
+    <t>ProdIdARpH</t>
+  </si>
+  <si>
+    <t>ProdIdsoSn</t>
+  </si>
+  <si>
+    <t>ProdIdPjsl</t>
+  </si>
+  <si>
+    <t>digitalmeshRtUaWD@maildrop.cc</t>
+  </si>
+  <si>
+    <t>digitalmeshfdykxm@maildrop.cc</t>
+  </si>
+  <si>
+    <t>ProdIdlN8Y</t>
+  </si>
+  <si>
+    <t>1196203914</t>
+  </si>
+  <si>
+    <t>jAuJT</t>
+  </si>
+  <si>
+    <t>digitalmesh7tvwde@maildrop.cc</t>
+  </si>
+  <si>
+    <t>8243655906</t>
+  </si>
+  <si>
+    <t>ebGjf</t>
+  </si>
+  <si>
+    <t>digitalmeshezwzur@maildrop.cc</t>
+  </si>
+  <si>
+    <t>9628248577</t>
+  </si>
+  <si>
+    <t>vCtJo</t>
+  </si>
+  <si>
+    <t>digitalmeshctmjob@maildrop.cc</t>
+  </si>
+  <si>
+    <t>5536733521</t>
+  </si>
+  <si>
+    <t>DKaVL</t>
+  </si>
+  <si>
+    <t>digitalmeshangeb7@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2622922229</t>
+  </si>
+  <si>
+    <t>UGCVF</t>
+  </si>
+  <si>
+    <t>DmBzMHPs!2</t>
+  </si>
+  <si>
+    <t>ProdIdUuYv</t>
+  </si>
+  <si>
+    <t>ProdIdBxgT</t>
+  </si>
+  <si>
+    <t>ProdIdBkhn</t>
+  </si>
+  <si>
+    <t>ProdIdzzq3</t>
+  </si>
+  <si>
+    <t>ProdIdJdAy</t>
+  </si>
+  <si>
+    <t>ProdIdbvkb</t>
+  </si>
+  <si>
+    <t>ProdIdQWs0</t>
+  </si>
+  <si>
+    <t>ProdIdt01S</t>
+  </si>
+  <si>
+    <t>ProdIdfCFB</t>
+  </si>
+  <si>
+    <t>ProdId7yCE</t>
+  </si>
+  <si>
+    <t>ProdIdGpTv</t>
+  </si>
+  <si>
+    <t>ProdIdbNMQ</t>
+  </si>
+  <si>
+    <t>ProdIdAbiM</t>
+  </si>
+  <si>
+    <t>ProdIdQ06U</t>
+  </si>
+  <si>
+    <t>ProdIdcjtX</t>
+  </si>
+  <si>
+    <t>ProdIdBI5b</t>
+  </si>
+  <si>
+    <t>ProdIdGcPx</t>
   </si>
 </sst>
 </file>
@@ -1162,6 +1304,9 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="C12" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -1245,7 +1390,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1510,6 +1655,9 @@
       <c r="D17" t="s">
         <v>107</v>
       </c>
+      <c r="E17" t="s">
+        <v>253</v>
+      </c>
       <c r="F17" t="s">
         <v>221</v>
       </c>
@@ -1521,6 +1669,9 @@
       <c r="D18" t="s">
         <v>109</v>
       </c>
+      <c r="F18" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
@@ -1529,6 +1680,9 @@
       <c r="D19" t="s">
         <v>111</v>
       </c>
+      <c r="F19" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
@@ -1537,6 +1691,9 @@
       <c r="D20" t="s">
         <v>113</v>
       </c>
+      <c r="F20" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
@@ -1545,6 +1702,9 @@
       <c r="D21" t="s">
         <v>115</v>
       </c>
+      <c r="F21" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
@@ -1553,6 +1713,9 @@
       <c r="D22" t="s">
         <v>117</v>
       </c>
+      <c r="F22" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="23">
       <c r="C23" t="s">
@@ -1838,26 +2001,41 @@
       <c r="C58" t="s">
         <v>151</v>
       </c>
+      <c r="D58" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="59">
       <c r="C59" t="s">
         <v>154</v>
       </c>
+      <c r="D59" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="60">
       <c r="C60" t="s">
         <v>157</v>
       </c>
+      <c r="D60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="61">
       <c r="C61" t="s">
         <v>160</v>
       </c>
+      <c r="D61" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="62">
       <c r="C62" t="s">
         <v>163</v>
       </c>
+      <c r="D62" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="63">
       <c r="C63" t="s">
@@ -1939,7 +2117,198 @@
         <v>222</v>
       </c>
     </row>
+    <row r="79">
+      <c r="C79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/TestDataH.xlsx
+++ b/src/TestDataH.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="272">
   <si>
     <t>Full_Name_History</t>
   </si>
@@ -830,6 +830,9 @@
   </si>
   <si>
     <t>ProdIdGcPx</t>
+  </si>
+  <si>
+    <t>ProdId0Svp</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2152,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2308,6 +2311,11 @@
         <v>270</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/TestDataH.xlsx
+++ b/src/TestDataH.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Add_User" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="Add_Products" r:id="rId6" sheetId="3"/>
+    <sheet name="PartnerDetails" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <oleSize ref="A1:F9"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="329">
   <si>
     <t>Full_Name_History</t>
   </si>
@@ -833,6 +834,177 @@
   </si>
   <si>
     <t>ProdId0Svp</t>
+  </si>
+  <si>
+    <t>ProdIdfLtu</t>
+  </si>
+  <si>
+    <t>ProdId8ALV</t>
+  </si>
+  <si>
+    <t>ProdIdzim3</t>
+  </si>
+  <si>
+    <t>ProdIdqk0S</t>
+  </si>
+  <si>
+    <t>ProdIdVBZl</t>
+  </si>
+  <si>
+    <t>ProdIdxyPL</t>
+  </si>
+  <si>
+    <t>ProdIdlhIW</t>
+  </si>
+  <si>
+    <t>ProdIdCKhc</t>
+  </si>
+  <si>
+    <t>ProdIdl01R</t>
+  </si>
+  <si>
+    <t>ProdIdvNF1</t>
+  </si>
+  <si>
+    <t>ProdIdRcHn</t>
+  </si>
+  <si>
+    <t>ProdIdWHYC</t>
+  </si>
+  <si>
+    <t>ProdIdhbko</t>
+  </si>
+  <si>
+    <t>ProdIdME3J</t>
+  </si>
+  <si>
+    <t>ProdIdG6Dp</t>
+  </si>
+  <si>
+    <t>ProdIdrHTz</t>
+  </si>
+  <si>
+    <t>ProdIdCjW1</t>
+  </si>
+  <si>
+    <t>ProdIdjE1g</t>
+  </si>
+  <si>
+    <t>ProdIddjOS</t>
+  </si>
+  <si>
+    <t>ProdIdZLvh</t>
+  </si>
+  <si>
+    <t>ProdIdNrtD</t>
+  </si>
+  <si>
+    <t>digitalmeshshfeep@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2058762080</t>
+  </si>
+  <si>
+    <t>MwZgm</t>
+  </si>
+  <si>
+    <t>digitalmesheza6mo@maildrop.cc</t>
+  </si>
+  <si>
+    <t>1478362061</t>
+  </si>
+  <si>
+    <t>yCxpl</t>
+  </si>
+  <si>
+    <t>digitalmesh2ctej5@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2868544217</t>
+  </si>
+  <si>
+    <t>YWFVa</t>
+  </si>
+  <si>
+    <t>digitalmesh4nst0j@maildrop.cc</t>
+  </si>
+  <si>
+    <t>8260412333</t>
+  </si>
+  <si>
+    <t>rGODr</t>
+  </si>
+  <si>
+    <t>digitalmeshga9ipx@maildrop.cc</t>
+  </si>
+  <si>
+    <t>7968399713</t>
+  </si>
+  <si>
+    <t>ZWwKK</t>
+  </si>
+  <si>
+    <t>digitalmeshiy8sjb@maildrop.cc</t>
+  </si>
+  <si>
+    <t>1983096638</t>
+  </si>
+  <si>
+    <t>VoLVu</t>
+  </si>
+  <si>
+    <t>DmU6hQPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshuydcsf@maildrop.cc</t>
+  </si>
+  <si>
+    <t>5159307068</t>
+  </si>
+  <si>
+    <t>WuMRO</t>
+  </si>
+  <si>
+    <t>digitalmesh3xfxdf@maildrop.cc</t>
+  </si>
+  <si>
+    <t>9188083957</t>
+  </si>
+  <si>
+    <t>wmdkj</t>
+  </si>
+  <si>
+    <t>digitalmeshdpqyd7@maildrop.cc</t>
+  </si>
+  <si>
+    <t>5606355552</t>
+  </si>
+  <si>
+    <t>HKxsM</t>
+  </si>
+  <si>
+    <t>DmNNKLPs!2</t>
+  </si>
+  <si>
+    <t>Delia Moore V</t>
+  </si>
+  <si>
+    <t>digitalmeshVdr96F@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Isaias Cartwright</t>
+  </si>
+  <si>
+    <t>digitalmeshcjl2iH@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Richard Nitzsche</t>
+  </si>
+  <si>
+    <t>digitalmesh45yy01@maildrop.cc</t>
+  </si>
+  <si>
+    <t>DmeBSXPs!2</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -1175,8 +1347,8 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="21.5625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.12890625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1270,6 +1442,9 @@
       <c r="C7" t="s">
         <v>45</v>
       </c>
+      <c r="D7" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -1315,16 +1490,25 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
+      <c r="C13" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
+      <c r="C14" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>21</v>
       </c>
+      <c r="C15" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -1384,6 +1568,21 @@
     <row r="27">
       <c r="A27" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -1672,6 +1871,9 @@
       <c r="D18" t="s">
         <v>109</v>
       </c>
+      <c r="E18" t="s">
+        <v>311</v>
+      </c>
       <c r="F18" t="s">
         <v>239</v>
       </c>
@@ -1683,6 +1885,9 @@
       <c r="D19" t="s">
         <v>111</v>
       </c>
+      <c r="E19" t="s">
+        <v>321</v>
+      </c>
       <c r="F19" t="s">
         <v>242</v>
       </c>
@@ -2044,45 +2249,72 @@
       <c r="C63" t="s">
         <v>168</v>
       </c>
+      <c r="D63" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="64">
       <c r="C64" t="s">
         <v>171</v>
       </c>
+      <c r="D64" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="65">
       <c r="C65" t="s">
         <v>174</v>
       </c>
+      <c r="D65" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="66">
       <c r="C66" t="s">
         <v>177</v>
       </c>
+      <c r="D66" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="67">
       <c r="C67" t="s">
         <v>180</v>
       </c>
+      <c r="D67" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="68">
       <c r="C68" t="s">
         <v>183</v>
       </c>
+      <c r="D68" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="69">
       <c r="C69" t="s">
         <v>186</v>
       </c>
+      <c r="D69" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="70">
       <c r="C70" t="s">
         <v>189</v>
       </c>
+      <c r="D70" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="71">
       <c r="C71" t="s">
         <v>193</v>
+      </c>
+      <c r="D71" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="72">
@@ -2152,7 +2384,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2316,6 +2548,245 @@
         <v>271</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.89453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.91015625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/TestDataH.xlsx
+++ b/src/TestDataH.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="330">
   <si>
     <t>Full_Name_History</t>
   </si>
@@ -1005,6 +1005,9 @@
   </si>
   <si>
     <t>DmeBSXPs!2</t>
+  </si>
+  <si>
+    <t>ProdIdioEq</t>
   </si>
 </sst>
 </file>
@@ -2384,7 +2387,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2651,6 +2654,11 @@
     <row r="52">
       <c r="A52" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestDataH.xlsx
+++ b/src/TestDataH.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="345">
   <si>
     <t>Full_Name_History</t>
   </si>
@@ -1008,6 +1008,51 @@
   </si>
   <si>
     <t>ProdIdioEq</t>
+  </si>
+  <si>
+    <t>ProdIdYUWt</t>
+  </si>
+  <si>
+    <t>ProdIdtwy6</t>
+  </si>
+  <si>
+    <t>digitalmeshzo9ta3@maildrop.cc</t>
+  </si>
+  <si>
+    <t>digitalmesh3pfmjs@maildrop.cc</t>
+  </si>
+  <si>
+    <t>4188037447</t>
+  </si>
+  <si>
+    <t>ukDGq</t>
+  </si>
+  <si>
+    <t>ProdIdhem3</t>
+  </si>
+  <si>
+    <t>ProdIdQgej</t>
+  </si>
+  <si>
+    <t>digitalmeshhw7asz@maildrop.cc</t>
+  </si>
+  <si>
+    <t>5926897006</t>
+  </si>
+  <si>
+    <t>cLjRE</t>
+  </si>
+  <si>
+    <t>Dma6uWPs!2</t>
+  </si>
+  <si>
+    <t>Solon Schuster</t>
+  </si>
+  <si>
+    <t>digitalmeshENFt18@maildrop.cc</t>
+  </si>
+  <si>
+    <t>Dmnt5hPs!2</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -1456,6 +1501,9 @@
       <c r="C8" t="s">
         <v>47</v>
       </c>
+      <c r="D8" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -1517,6 +1565,9 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
+      <c r="C16" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
@@ -1586,6 +1637,11 @@
     <row r="30">
       <c r="A30" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -1902,6 +1958,9 @@
       <c r="D20" t="s">
         <v>113</v>
       </c>
+      <c r="E20" t="s">
+        <v>341</v>
+      </c>
       <c r="F20" t="s">
         <v>245</v>
       </c>
@@ -2324,15 +2383,24 @@
       <c r="C72" t="s">
         <v>197</v>
       </c>
+      <c r="D72" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="73">
       <c r="C73" t="s">
         <v>201</v>
       </c>
+      <c r="D73" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="74">
       <c r="C74" t="s">
         <v>205</v>
+      </c>
+      <c r="D74" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="75">
@@ -2387,7 +2455,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2661,6 +2729,26 @@
         <v>329</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2668,7 +2756,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2677,6 +2765,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="30.89453125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="15.91015625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.80859375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2717,6 +2806,9 @@
       <c r="C3" t="s">
         <v>298</v>
       </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2793,6 +2885,33 @@
       </c>
       <c r="C10" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestDataH.xlsx
+++ b/src/TestDataH.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="Add_Products" r:id="rId6" sheetId="3"/>
     <sheet name="PartnerDetails" r:id="rId7" sheetId="4"/>
+    <sheet name="ChangePassword" r:id="rId8" sheetId="5"/>
   </sheets>
   <calcPr calcId="125725"/>
   <oleSize ref="A1:F9"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="395">
   <si>
     <t>Full_Name_History</t>
   </si>
@@ -1053,6 +1054,156 @@
   </si>
   <si>
     <t>Dmnt5hPs!2</t>
+  </si>
+  <si>
+    <t>ProdIdlR3t</t>
+  </si>
+  <si>
+    <t>digitalmeshln5tnx@maildrop.cc</t>
+  </si>
+  <si>
+    <t>1689597961</t>
+  </si>
+  <si>
+    <t>BPDLr</t>
+  </si>
+  <si>
+    <t>digitalmeshjcvk1l@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2778870791</t>
+  </si>
+  <si>
+    <t>uOfIU</t>
+  </si>
+  <si>
+    <t>digitalmeshdbun6l@maildrop.cc</t>
+  </si>
+  <si>
+    <t>4311396530</t>
+  </si>
+  <si>
+    <t>eKJat</t>
+  </si>
+  <si>
+    <t>Daisy Fahey MD</t>
+  </si>
+  <si>
+    <t>digitalmeshkIuqf8@maildrop.cc</t>
+  </si>
+  <si>
+    <t>DmK0ViPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshcqf5ry@maildrop.cc</t>
+  </si>
+  <si>
+    <t>6665365166</t>
+  </si>
+  <si>
+    <t>QWAqj</t>
+  </si>
+  <si>
+    <t>DmWyTfPs!2</t>
+  </si>
+  <si>
+    <t>digitalmeshc433qq@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2610417823</t>
+  </si>
+  <si>
+    <t>VrJyb</t>
+  </si>
+  <si>
+    <t>digitalmeshizsnam@maildrop.cc</t>
+  </si>
+  <si>
+    <t>8923359315</t>
+  </si>
+  <si>
+    <t>mSLAC</t>
+  </si>
+  <si>
+    <t>digitalmeshznje50@maildrop.cc</t>
+  </si>
+  <si>
+    <t>4645560812</t>
+  </si>
+  <si>
+    <t>bqShD</t>
+  </si>
+  <si>
+    <t>digitalmeshaxcfyv@maildrop.cc</t>
+  </si>
+  <si>
+    <t>9788978226</t>
+  </si>
+  <si>
+    <t>JVMCr</t>
+  </si>
+  <si>
+    <t>digitalmeshiglbq7@maildrop.cc</t>
+  </si>
+  <si>
+    <t>0287631183</t>
+  </si>
+  <si>
+    <t>mQKQU</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>Pass@䗭𭏢</t>
+  </si>
+  <si>
+    <t>Pass@𗓫魫</t>
+  </si>
+  <si>
+    <t>Pass@𪜔녠</t>
+  </si>
+  <si>
+    <t>Pass@552</t>
+  </si>
+  <si>
+    <t>Pass@262</t>
+  </si>
+  <si>
+    <t>Pass@160</t>
+  </si>
+  <si>
+    <t>Password_Record</t>
+  </si>
+  <si>
+    <t>Pass@784</t>
+  </si>
+  <si>
+    <t>OldPassword</t>
+  </si>
+  <si>
+    <t>Pass@123</t>
+  </si>
+  <si>
+    <t>Pass@449</t>
+  </si>
+  <si>
+    <t>ChangedPassword</t>
+  </si>
+  <si>
+    <t>Pass@880</t>
+  </si>
+  <si>
+    <t>digitalmeshdkgna3@maildrop.cc</t>
+  </si>
+  <si>
+    <t>1066741090</t>
+  </si>
+  <si>
+    <t>dhCZt</t>
+  </si>
+  <si>
+    <t>DmYsMqPs!2</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -1512,6 +1663,9 @@
       <c r="C9" t="s">
         <v>49</v>
       </c>
+      <c r="D9" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -1573,6 +1727,9 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
+      <c r="C17" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
@@ -1642,6 +1799,11 @@
     <row r="31">
       <c r="A31" t="s">
         <v>342</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -1651,7 +1813,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1665,6 +1827,8 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="31.53125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="24.80859375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.00390625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.4296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1686,6 +1850,12 @@
       <c r="F1" t="s">
         <v>166</v>
       </c>
+      <c r="G1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -1706,6 +1876,12 @@
       <c r="F2" t="s">
         <v>167</v>
       </c>
+      <c r="G2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H2" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
@@ -1723,6 +1899,12 @@
       <c r="F3" t="s">
         <v>170</v>
       </c>
+      <c r="G3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H3" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
@@ -1972,6 +2154,9 @@
       <c r="D21" t="s">
         <v>115</v>
       </c>
+      <c r="E21" t="s">
+        <v>361</v>
+      </c>
       <c r="F21" t="s">
         <v>248</v>
       </c>
@@ -1983,6 +2168,9 @@
       <c r="D22" t="s">
         <v>117</v>
       </c>
+      <c r="E22" t="s">
+        <v>394</v>
+      </c>
       <c r="F22" t="s">
         <v>251</v>
       </c>
@@ -2407,45 +2595,77 @@
       <c r="C75" t="s">
         <v>212</v>
       </c>
+      <c r="D75" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="76">
       <c r="C76" t="s">
         <v>216</v>
       </c>
+      <c r="D76" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="77">
       <c r="C77" t="s">
         <v>219</v>
       </c>
+      <c r="D77" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="78">
       <c r="C78" t="s">
         <v>222</v>
       </c>
+      <c r="D78" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="79">
       <c r="C79" t="s">
         <v>240</v>
       </c>
+      <c r="D79" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="80">
       <c r="C80" t="s">
         <v>243</v>
       </c>
+      <c r="D80" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="81">
       <c r="C81" t="s">
         <v>246</v>
       </c>
+      <c r="D81" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="82">
       <c r="C82" t="s">
         <v>249</v>
       </c>
+      <c r="D82" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="83">
       <c r="C83" t="s">
         <v>252</v>
+      </c>
+      <c r="D83" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -2455,7 +2675,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2749,6 +2969,11 @@
         <v>337</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2756,7 +2981,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2820,6 +3045,9 @@
       <c r="C4" t="s">
         <v>301</v>
       </c>
+      <c r="D4" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2831,6 +3059,9 @@
       <c r="C5" t="s">
         <v>304</v>
       </c>
+      <c r="D5" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2912,6 +3143,192 @@
     <row r="13">
       <c r="A13" t="s">
         <v>338</v>
+      </c>
+      <c r="B13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B18" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>365</v>
+      </c>
+      <c r="B19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>368</v>
+      </c>
+      <c r="B20" t="s">
+        <v>372</v>
+      </c>
+      <c r="C20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C22" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.69140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.72265625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestDataH.xlsx
+++ b/src/TestDataH.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Add_Products" r:id="rId6" sheetId="3"/>
     <sheet name="PartnerDetails" r:id="rId7" sheetId="4"/>
     <sheet name="ChangePassword" r:id="rId8" sheetId="5"/>
+    <sheet name="ForgetPassword" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="125725"/>
   <oleSize ref="A1:F9"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="483">
   <si>
     <t>Full_Name_History</t>
   </si>
@@ -1204,6 +1205,270 @@
   </si>
   <si>
     <t>DmYsMqPs!2</t>
+  </si>
+  <si>
+    <t>Pass@807</t>
+  </si>
+  <si>
+    <t>Miller@385</t>
+  </si>
+  <si>
+    <t>Miller@450</t>
+  </si>
+  <si>
+    <t>Password_New</t>
+  </si>
+  <si>
+    <t>Dav!@1234</t>
+  </si>
+  <si>
+    <t>digitalmeshvlnkbp@maildrop.cc</t>
+  </si>
+  <si>
+    <t>digitalmeshabmtpj@maildrop.cc</t>
+  </si>
+  <si>
+    <t>0466893518</t>
+  </si>
+  <si>
+    <t>Zgfkp</t>
+  </si>
+  <si>
+    <t>9692997086</t>
+  </si>
+  <si>
+    <t>zvdDN</t>
+  </si>
+  <si>
+    <t>1966086533</t>
+  </si>
+  <si>
+    <t>wpgmC</t>
+  </si>
+  <si>
+    <t>digitalmeshjegdfu@maildrop.cc</t>
+  </si>
+  <si>
+    <t>0350394949</t>
+  </si>
+  <si>
+    <t>ghhqr</t>
+  </si>
+  <si>
+    <t>digitalmeshzmtgpn@maildrop.cc</t>
+  </si>
+  <si>
+    <t>6763159187</t>
+  </si>
+  <si>
+    <t>QYDel</t>
+  </si>
+  <si>
+    <t>digitalmeshqpwhqh@maildrop.cc</t>
+  </si>
+  <si>
+    <t>6259802196</t>
+  </si>
+  <si>
+    <t>UKJtw</t>
+  </si>
+  <si>
+    <t>digitalmeshqfe0a3@maildrop.cc</t>
+  </si>
+  <si>
+    <t>6745730079</t>
+  </si>
+  <si>
+    <t>HxcLQ</t>
+  </si>
+  <si>
+    <t>digitalmeshafgs0d@maildrop.cc</t>
+  </si>
+  <si>
+    <t>9272020144</t>
+  </si>
+  <si>
+    <t>PJEzS</t>
+  </si>
+  <si>
+    <t>digitalmeshfqnomb@maildrop.cc</t>
+  </si>
+  <si>
+    <t>7554562067</t>
+  </si>
+  <si>
+    <t>eFjCw</t>
+  </si>
+  <si>
+    <t>digitalmeshxktkhe@maildrop.cc</t>
+  </si>
+  <si>
+    <t>6971140660</t>
+  </si>
+  <si>
+    <t>BhfGH</t>
+  </si>
+  <si>
+    <t>digitalmeshnhlq7g@maildrop.cc</t>
+  </si>
+  <si>
+    <t>9314747773</t>
+  </si>
+  <si>
+    <t>hnIXw</t>
+  </si>
+  <si>
+    <t>digitalmeshkxbywk@maildrop.cc</t>
+  </si>
+  <si>
+    <t>9629956265</t>
+  </si>
+  <si>
+    <t>vhLJq</t>
+  </si>
+  <si>
+    <t>digitalmesh40xndi@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2092546202</t>
+  </si>
+  <si>
+    <t>VfqLn</t>
+  </si>
+  <si>
+    <t>digitalmeshukl7jo@maildrop.cc</t>
+  </si>
+  <si>
+    <t>0062486451</t>
+  </si>
+  <si>
+    <t>zVPjL</t>
+  </si>
+  <si>
+    <t>digitalmesh9sawuq@maildrop.cc</t>
+  </si>
+  <si>
+    <t>9855841099</t>
+  </si>
+  <si>
+    <t>ukILe</t>
+  </si>
+  <si>
+    <t>digitalmeshqrutj3@maildrop.cc</t>
+  </si>
+  <si>
+    <t>5144900474</t>
+  </si>
+  <si>
+    <t>VdlbL</t>
+  </si>
+  <si>
+    <t>digitalmesh913jwh@maildrop.cc</t>
+  </si>
+  <si>
+    <t>1428765991</t>
+  </si>
+  <si>
+    <t>rPHqL</t>
+  </si>
+  <si>
+    <t>digitalmeshbrvwu7@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2431826116</t>
+  </si>
+  <si>
+    <t>ZkiLj</t>
+  </si>
+  <si>
+    <t>digitalmeshiydg7r@maildrop.cc</t>
+  </si>
+  <si>
+    <t>4053785695</t>
+  </si>
+  <si>
+    <t>SFDNt</t>
+  </si>
+  <si>
+    <t>digitalmeshvuqz49@maildrop.cc</t>
+  </si>
+  <si>
+    <t>7619470719</t>
+  </si>
+  <si>
+    <t>WILNb</t>
+  </si>
+  <si>
+    <t>digitalmesht1gyyx@maildrop.cc</t>
+  </si>
+  <si>
+    <t>6575129228</t>
+  </si>
+  <si>
+    <t>RLlYA</t>
+  </si>
+  <si>
+    <t>digitalmeshu3zgf1@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2659267185</t>
+  </si>
+  <si>
+    <t>LSqqf</t>
+  </si>
+  <si>
+    <t>digitalmeshjb1nhc@maildrop.cc</t>
+  </si>
+  <si>
+    <t>5401643414</t>
+  </si>
+  <si>
+    <t>tKaYG</t>
+  </si>
+  <si>
+    <t>digitalmeshfk4j9q@maildrop.cc</t>
+  </si>
+  <si>
+    <t>9811264712</t>
+  </si>
+  <si>
+    <t>gsJSQ</t>
+  </si>
+  <si>
+    <t>digitalmeshjhxp69@maildrop.cc</t>
+  </si>
+  <si>
+    <t>0095129719</t>
+  </si>
+  <si>
+    <t>UkFBt</t>
+  </si>
+  <si>
+    <t>digitalmeshr9kkzz@maildrop.cc</t>
+  </si>
+  <si>
+    <t>1516781975</t>
+  </si>
+  <si>
+    <t>dHras</t>
+  </si>
+  <si>
+    <t>digitalmesh7vntm9@maildrop.cc</t>
+  </si>
+  <si>
+    <t>2066235914</t>
+  </si>
+  <si>
+    <t>qHUDF</t>
+  </si>
+  <si>
+    <t>digitalmesh8fhhi7@maildrop.cc</t>
+  </si>
+  <si>
+    <t>5240559014</t>
+  </si>
+  <si>
+    <t>PBtNx</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +2078,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1922,6 +2187,9 @@
       <c r="F4" t="s">
         <v>173</v>
       </c>
+      <c r="H4" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
@@ -1936,6 +2204,9 @@
       <c r="F5" t="s">
         <v>176</v>
       </c>
+      <c r="H5" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" t="s">
@@ -1950,6 +2221,9 @@
       <c r="F6" t="s">
         <v>179</v>
       </c>
+      <c r="H6" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="C7" t="s">
@@ -2666,6 +2940,141 @@
     <row r="84">
       <c r="D84" t="s">
         <v>391</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="D99" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="D100" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="D103" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="D104" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="D105" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="D106" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="D107" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="D109" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="D110" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="D111" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -2981,13 +3390,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.89453125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="31.19921875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="15.91015625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="24.80859375" collapsed="true"/>
@@ -3254,6 +3663,309 @@
       <c r="A23" t="s">
         <v>391</v>
       </c>
+      <c r="B23" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>400</v>
+      </c>
+      <c r="B24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C24" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>401</v>
+      </c>
+      <c r="B25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>408</v>
+      </c>
+      <c r="B26" t="s">
+        <v>409</v>
+      </c>
+      <c r="C26" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>411</v>
+      </c>
+      <c r="B27" t="s">
+        <v>412</v>
+      </c>
+      <c r="C27" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>414</v>
+      </c>
+      <c r="B28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C28" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>417</v>
+      </c>
+      <c r="B29" t="s">
+        <v>418</v>
+      </c>
+      <c r="C29" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>420</v>
+      </c>
+      <c r="B30" t="s">
+        <v>421</v>
+      </c>
+      <c r="C30" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>423</v>
+      </c>
+      <c r="B31" t="s">
+        <v>424</v>
+      </c>
+      <c r="C31" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>426</v>
+      </c>
+      <c r="B32" t="s">
+        <v>427</v>
+      </c>
+      <c r="C32" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>429</v>
+      </c>
+      <c r="B33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C33" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>432</v>
+      </c>
+      <c r="B34" t="s">
+        <v>433</v>
+      </c>
+      <c r="C34" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>435</v>
+      </c>
+      <c r="B35" t="s">
+        <v>436</v>
+      </c>
+      <c r="C35" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>438</v>
+      </c>
+      <c r="B36" t="s">
+        <v>439</v>
+      </c>
+      <c r="C36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>441</v>
+      </c>
+      <c r="B37" t="s">
+        <v>442</v>
+      </c>
+      <c r="C37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>444</v>
+      </c>
+      <c r="B38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C38" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>447</v>
+      </c>
+      <c r="B39" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>450</v>
+      </c>
+      <c r="B40" t="s">
+        <v>451</v>
+      </c>
+      <c r="C40" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>453</v>
+      </c>
+      <c r="B41" t="s">
+        <v>454</v>
+      </c>
+      <c r="C41" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>456</v>
+      </c>
+      <c r="B42" t="s">
+        <v>457</v>
+      </c>
+      <c r="C42" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>459</v>
+      </c>
+      <c r="B43" t="s">
+        <v>460</v>
+      </c>
+      <c r="C43" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>462</v>
+      </c>
+      <c r="B44" t="s">
+        <v>463</v>
+      </c>
+      <c r="C44" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>465</v>
+      </c>
+      <c r="B45" t="s">
+        <v>466</v>
+      </c>
+      <c r="C45" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B46" t="s">
+        <v>469</v>
+      </c>
+      <c r="C46" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>471</v>
+      </c>
+      <c r="B47" t="s">
+        <v>472</v>
+      </c>
+      <c r="C47" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>474</v>
+      </c>
+      <c r="B48" t="s">
+        <v>475</v>
+      </c>
+      <c r="C48" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>477</v>
+      </c>
+      <c r="B49" t="s">
+        <v>478</v>
+      </c>
+      <c r="C49" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>480</v>
+      </c>
+      <c r="B50" t="s">
+        <v>481</v>
+      </c>
+      <c r="C50" t="s">
+        <v>482</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3262,7 +3974,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3331,6 +4043,34 @@
         <v>390</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
